--- a/artfynd/Stormyrbäcken artfynd.xlsx
+++ b/artfynd/Stormyrbäcken artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AY87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104166212</v>
+        <v>126840364</v>
       </c>
       <c r="B5" t="n">
-        <v>91245</v>
+        <v>75075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1024,37 +1024,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>697081</v>
+        <v>696815</v>
       </c>
       <c r="R5" t="n">
-        <v>7094804</v>
+        <v>7094682</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1092,82 +1092,59 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104166200</v>
+        <v>126835890</v>
       </c>
       <c r="B6" t="n">
-        <v>91245</v>
+        <v>98361</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>696616</v>
+        <v>696617</v>
       </c>
       <c r="R6" t="n">
-        <v>7094660</v>
+        <v>7094713</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1194,12 +1171,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1210,21 +1187,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1234,21 +1196,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104293806</v>
+        <v>126835891</v>
       </c>
       <c r="B7" t="n">
-        <v>91245</v>
+        <v>91241</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,37 +1214,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>696512</v>
+        <v>696626</v>
       </c>
       <c r="R7" t="n">
-        <v>7094682</v>
+        <v>7094655</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1310,22 +1268,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>15:41</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>15:41</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1336,64 +1284,84 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104293807</v>
+        <v>126835896</v>
       </c>
       <c r="B8" t="n">
-        <v>91245</v>
+        <v>100516</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>1365</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>696646</v>
+        <v>696780</v>
       </c>
       <c r="R8" t="n">
-        <v>7094651</v>
+        <v>7094762</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1417,22 +1385,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>15:31</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>15:31</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1447,60 +1405,60 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104293812</v>
+        <v>126839844</v>
       </c>
       <c r="B9" t="n">
-        <v>91699</v>
+        <v>91365</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>3277</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(O.F.Müll.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>696880</v>
+        <v>696664</v>
       </c>
       <c r="R9" t="n">
-        <v>7094619</v>
+        <v>7094733</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1524,22 +1482,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>15:12</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>15:12</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1554,60 +1502,67 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104166227</v>
+        <v>126844609</v>
       </c>
       <c r="B10" t="n">
-        <v>91699</v>
+        <v>75075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>696765</v>
+        <v>696549</v>
       </c>
       <c r="R10" t="n">
-        <v>7094591</v>
+        <v>7094686</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1631,12 +1586,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1645,47 +1600,29 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Beke Regelin, Alexandra Astafourova, Vilhelm Kroon, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104293809</v>
+        <v>126840372</v>
       </c>
       <c r="B11" t="n">
-        <v>57657</v>
+        <v>91241</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1693,42 +1630,40 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>696868</v>
+        <v>696618</v>
       </c>
       <c r="R11" t="n">
-        <v>7094595</v>
+        <v>7094657</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1752,22 +1687,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>15:17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>15:17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1776,28 +1701,19 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104166201</v>
+        <v>104166212</v>
       </c>
       <c r="B12" t="n">
-        <v>91195</v>
+        <v>91245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1805,21 +1721,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1829,10 +1745,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>696617</v>
+        <v>697081</v>
       </c>
       <c r="R12" t="n">
-        <v>7094660</v>
+        <v>7094804</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1910,48 +1826,48 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104293825</v>
+        <v>104166200</v>
       </c>
       <c r="B13" t="n">
-        <v>91603</v>
+        <v>91245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>696519</v>
+        <v>696616</v>
       </c>
       <c r="R13" t="n">
-        <v>7094677</v>
+        <v>7094660</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1978,26 +1894,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>15:41</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>15:41</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Eventuellt Skeletocutis delicata</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2009,76 +1910,80 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104166204</v>
+        <v>104293806</v>
       </c>
       <c r="B14" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>696859</v>
+        <v>696512</v>
       </c>
       <c r="R14" t="n">
-        <v>7094630</v>
+        <v>7094682</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2105,11 +2010,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2118,45 +2033,26 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104166223</v>
+        <v>104293807</v>
       </c>
       <c r="B15" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2164,37 +2060,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>696783</v>
+        <v>696646</v>
       </c>
       <c r="R15" t="n">
-        <v>7094627</v>
+        <v>7094651</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2221,11 +2117,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>15:31</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>15:31</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2234,83 +2140,64 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104166224</v>
+        <v>104293812</v>
       </c>
       <c r="B16" t="n">
-        <v>91942</v>
+        <v>91699</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>696783</v>
+        <v>696880</v>
       </c>
       <c r="R16" t="n">
-        <v>7094623</v>
+        <v>7094619</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2337,11 +2224,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2350,45 +2247,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104166219</v>
+        <v>126839840</v>
       </c>
       <c r="B17" t="n">
-        <v>91263</v>
+        <v>57657</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2396,34 +2274,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>696852</v>
+        <v>696751</v>
       </c>
       <c r="R17" t="n">
-        <v>7094731</v>
+        <v>7094766</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2450,12 +2328,17 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack på gran, 2 månader gammalt</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2466,89 +2349,65 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104166193</v>
+        <v>126839839</v>
       </c>
       <c r="B18" t="n">
-        <v>79518</v>
+        <v>91942</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1353</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådbrosklav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ramalina thrausta</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>696515</v>
+        <v>696782</v>
       </c>
       <c r="R18" t="n">
-        <v>7094663</v>
+        <v>7094640</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2575,12 +2434,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2591,45 +2450,30 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104293817</v>
+        <v>126839841</v>
       </c>
       <c r="B19" t="n">
-        <v>75075</v>
+        <v>57657</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2637,37 +2481,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>697041</v>
+        <v>696826</v>
       </c>
       <c r="R19" t="n">
-        <v>7094811</v>
+        <v>7094780</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2691,22 +2535,17 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>14:45</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>14:45</t>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Äldre spår av ringhack, gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2721,44 +2560,48 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr"/>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104166194</v>
+        <v>104166227</v>
       </c>
       <c r="B20" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2768,10 +2611,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>696513</v>
+        <v>696765</v>
       </c>
       <c r="R20" t="n">
-        <v>7094662</v>
+        <v>7094591</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2849,48 +2692,53 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104166222</v>
+        <v>104293809</v>
       </c>
       <c r="B21" t="n">
-        <v>91699</v>
+        <v>57657</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>696811</v>
+        <v>696868</v>
       </c>
       <c r="R21" t="n">
-        <v>7094662</v>
+        <v>7094595</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2917,11 +2765,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -2930,45 +2788,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104293819</v>
+        <v>104166201</v>
       </c>
       <c r="B22" t="n">
-        <v>57657</v>
+        <v>91195</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2976,42 +2815,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>112</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>696836</v>
+        <v>696617</v>
       </c>
       <c r="R22" t="n">
-        <v>7094771</v>
+        <v>7094660</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3038,21 +2872,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
@@ -3061,59 +2885,83 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104166202</v>
+        <v>104293825</v>
       </c>
       <c r="B23" t="n">
-        <v>91652</v>
+        <v>91603</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6040186</v>
+        <v>2062</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>696617</v>
+        <v>696519</v>
       </c>
       <c r="R23" t="n">
-        <v>7094663</v>
+        <v>7094677</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3140,11 +2988,26 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Eventuellt Skeletocutis delicata</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3156,86 +3019,73 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104166192</v>
+        <v>126838735</v>
       </c>
       <c r="B24" t="n">
-        <v>79518</v>
+        <v>82792</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1353</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådbrosklav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ramalina thrausta</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>696522</v>
+        <v>696761</v>
       </c>
       <c r="R24" t="n">
-        <v>7094694</v>
+        <v>7094768</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3262,12 +3112,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3278,42 +3128,27 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Elin Kannerby</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Elin Kannerby</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104166191</v>
+        <v>126838456</v>
       </c>
       <c r="B25" t="n">
         <v>98361</v>
@@ -3341,17 +3176,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken , Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>696541</v>
+        <v>696678</v>
       </c>
       <c r="R25" t="n">
-        <v>7094674</v>
+        <v>7094622</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3378,12 +3221,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3392,32 +3245,29 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104166190</v>
+        <v>126840365</v>
       </c>
       <c r="B26" t="n">
-        <v>96487</v>
+        <v>91210</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3425,37 +3275,40 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2869</v>
+        <v>5447</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>696634</v>
+        <v>696619</v>
       </c>
       <c r="R26" t="n">
-        <v>7094607</v>
+        <v>7094648</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3479,12 +3332,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3493,70 +3346,61 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr">
-        <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AX26" t="inlineStr">
-        <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104166220</v>
+        <v>126840369</v>
       </c>
       <c r="B27" t="n">
-        <v>78980</v>
+        <v>100516</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1365</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>696849</v>
+        <v>696651</v>
       </c>
       <c r="R27" t="n">
-        <v>7094758</v>
+        <v>7094728</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3580,12 +3424,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3594,69 +3438,41 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr">
-        <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AX27" t="inlineStr">
-        <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104166225</v>
+        <v>104166204</v>
       </c>
       <c r="B28" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3666,10 +3482,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>696763</v>
+        <v>696859</v>
       </c>
       <c r="R28" t="n">
-        <v>7094591</v>
+        <v>7094630</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3747,32 +3563,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104166203</v>
+        <v>104166223</v>
       </c>
       <c r="B29" t="n">
-        <v>91942</v>
+        <v>91263</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3782,10 +3598,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>696867</v>
+        <v>696783</v>
       </c>
       <c r="R29" t="n">
-        <v>7094617</v>
+        <v>7094627</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3863,54 +3679,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104166221</v>
+        <v>126835892</v>
       </c>
       <c r="B30" t="n">
-        <v>79518</v>
+        <v>91245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1353</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trådbrosklav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramalina thrausta</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>696848</v>
+        <v>696623</v>
       </c>
       <c r="R30" t="n">
-        <v>7094729</v>
+        <v>7094659</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3937,12 +3744,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3977,21 +3784,17 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY30" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104293818</v>
+        <v>126837371</v>
       </c>
       <c r="B31" t="n">
-        <v>78980</v>
+        <v>57657</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3999,37 +3802,45 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>697040</v>
+        <v>696757</v>
       </c>
       <c r="R31" t="n">
-        <v>7094813</v>
+        <v>7094771</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4053,22 +3864,27 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Årsfärska ringhack på gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4083,22 +3899,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104166211</v>
+        <v>126840371</v>
       </c>
       <c r="B32" t="n">
-        <v>91699</v>
+        <v>98361</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4106,37 +3922,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>697081</v>
+        <v>696641</v>
       </c>
       <c r="R32" t="n">
-        <v>7094804</v>
+        <v>7094707</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4160,12 +3976,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4177,66 +3993,37 @@
       <c r="AG32" t="b">
         <v>0</v>
       </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr">
-        <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AX32" t="inlineStr">
-        <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY32" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+      <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104166215</v>
+        <v>104166224</v>
       </c>
       <c r="B33" t="n">
-        <v>91245</v>
+        <v>91942</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4246,10 +4033,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>697085</v>
+        <v>696783</v>
       </c>
       <c r="R33" t="n">
-        <v>7094831</v>
+        <v>7094623</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4327,10 +4114,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104166197</v>
+        <v>126839848</v>
       </c>
       <c r="B34" t="n">
-        <v>91195</v>
+        <v>91241</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4338,34 +4125,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>112</v>
+        <v>1108</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>696541</v>
+        <v>696622</v>
       </c>
       <c r="R34" t="n">
-        <v>7094647</v>
+        <v>7094659</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4392,12 +4179,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4408,45 +4195,30 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126807878</v>
+        <v>126840076</v>
       </c>
       <c r="B35" t="n">
-        <v>91265</v>
+        <v>78980</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4454,40 +4226,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>696559</v>
+        <v>696735</v>
       </c>
       <c r="R35" t="n">
-        <v>7094716</v>
+        <v>7094766</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4511,12 +4280,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4525,87 +4294,75 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Carl Jansson, Roger Adolfsson</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104293820</v>
+        <v>104166193</v>
       </c>
       <c r="B36" t="n">
-        <v>57657</v>
+        <v>79518</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>1353</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådbrosklav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramalina thrausta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(Ach.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>696763</v>
+        <v>696515</v>
       </c>
       <c r="R36" t="n">
-        <v>7094768</v>
+        <v>7094663</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4632,21 +4389,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>14:25</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>14:25</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -4655,64 +4402,80 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104166198</v>
+        <v>104166219</v>
       </c>
       <c r="B37" t="n">
-        <v>91832</v>
+        <v>91263</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1179</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>696550</v>
+        <v>696852</v>
       </c>
       <c r="R37" t="n">
-        <v>7094651</v>
+        <v>7094731</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4753,11 +4516,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4777,11 +4535,6 @@
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>Gudrun Norstedt</t>
-        </is>
-      </c>
       <c r="AW37" t="inlineStr">
         <is>
           <t>Carl Jansson</t>
@@ -4800,10 +4553,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104293822</v>
+        <v>104293817</v>
       </c>
       <c r="B38" t="n">
-        <v>57817</v>
+        <v>75075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4811,38 +4564,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>103021</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>696735</v>
+        <v>697041</v>
       </c>
       <c r="R38" t="n">
-        <v>7094763</v>
+        <v>7094811</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4874,7 +4623,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4884,7 +4633,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4911,45 +4660,45 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104166195</v>
+        <v>126839843</v>
       </c>
       <c r="B39" t="n">
-        <v>91245</v>
+        <v>98382</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>696542</v>
+        <v>696652</v>
       </c>
       <c r="R39" t="n">
-        <v>7094648</v>
+        <v>7094729</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4976,12 +4725,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4992,83 +4741,65 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104166199</v>
+        <v>126839742</v>
       </c>
       <c r="B40" t="n">
-        <v>91603</v>
+        <v>98278</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2062</v>
+        <v>219790</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Ångermanland, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>696616</v>
+        <v>696724</v>
       </c>
       <c r="R40" t="n">
-        <v>7094660</v>
+        <v>7094636</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5095,17 +4826,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Skeletocutis brevispora i snäv bemärkelse</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5114,148 +4840,5102 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>ullticka</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
       <c r="AT40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr">
-        <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AX40" t="inlineStr">
-        <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
       <c r="AY40" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104293811</v>
+        <v>126839741</v>
       </c>
       <c r="B41" t="n">
-        <v>95025</v>
+        <v>98361</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2412</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Källmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Philonotis fontana</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
+          <t>Stormyrbäcken, Ångermanland, Ång</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>696653</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7094725</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>126835894</v>
+      </c>
+      <c r="B42" t="n">
+        <v>91652</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>6040186</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Leptoporus mollis</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Balsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>696624</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7094658</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>104293819</v>
+      </c>
+      <c r="B43" t="n">
+        <v>57657</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
           <t>Bjurholm, Ång</t>
         </is>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q43" t="n">
+        <v>696836</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7094771</v>
+      </c>
+      <c r="S43" t="n">
+        <v>25</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>104166194</v>
+      </c>
+      <c r="B44" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>696513</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7094662</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>104166222</v>
+      </c>
+      <c r="B45" t="n">
+        <v>91699</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>696811</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7094662</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>126835889</v>
+      </c>
+      <c r="B46" t="n">
+        <v>100516</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1365</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Lappranunkel</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Coptidium lapponicum</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(L.) Tzvelev</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Balsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>696640</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7094734</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>126839838</v>
+      </c>
+      <c r="B47" t="n">
+        <v>91210</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>696620</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7094659</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>126840075</v>
+      </c>
+      <c r="B48" t="n">
+        <v>57657</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>696832</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7094780</v>
+      </c>
+      <c r="S48" t="n">
+        <v>20</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>104166202</v>
+      </c>
+      <c r="B49" t="n">
+        <v>91652</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>6040186</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Leptoporus mollis</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>696617</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7094663</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>104166192</v>
+      </c>
+      <c r="B50" t="n">
+        <v>79518</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1353</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Trådbrosklav</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Ramalina thrausta</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Ach.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>696522</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7094694</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>126835897</v>
+      </c>
+      <c r="B51" t="n">
+        <v>96614</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>53</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Balsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>696720</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7094754</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>126835895</v>
+      </c>
+      <c r="B52" t="n">
+        <v>91699</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Balsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>696804</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7094657</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>126840366</v>
+      </c>
+      <c r="B53" t="n">
+        <v>91195</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>112</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>696621</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7094659</v>
+      </c>
+      <c r="S53" t="n">
+        <v>15</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>104166191</v>
+      </c>
+      <c r="B54" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>696541</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7094674</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>104166190</v>
+      </c>
+      <c r="B55" t="n">
+        <v>96487</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2869</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bollvitmossa</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Sphagnum wulfianum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>696634</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7094607</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>104166220</v>
+      </c>
+      <c r="B56" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>696849</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7094758</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>126840373</v>
+      </c>
+      <c r="B57" t="n">
+        <v>91832</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Gräddticka</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Perenniporia subacida</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>696553</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7094650</v>
+      </c>
+      <c r="S57" t="n">
+        <v>15</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>126839837</v>
+      </c>
+      <c r="B58" t="n">
+        <v>75075</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>696809</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7094671</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>104166225</v>
+      </c>
+      <c r="B59" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>696763</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7094591</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>104166203</v>
+      </c>
+      <c r="B60" t="n">
+        <v>91942</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>696867</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7094617</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>126838671</v>
+      </c>
+      <c r="B61" t="n">
+        <v>98322</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>6010643</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Fläcknycklar × sumpnycklar</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Dactylorhiza maculata × majalis subsp. lapponica</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken , Ång</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>696675</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7094624</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>104293818</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>697040</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7094813</v>
+      </c>
+      <c r="S62" t="n">
+        <v>25</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>104166211</v>
+      </c>
+      <c r="B63" t="n">
+        <v>91699</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>697081</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7094804</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>104166215</v>
+      </c>
+      <c r="B64" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>697085</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7094831</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>104166221</v>
+      </c>
+      <c r="B65" t="n">
+        <v>79518</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1353</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Trådbrosklav</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Ramalina thrausta</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Ach.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>696848</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7094729</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>126835898</v>
+      </c>
+      <c r="B66" t="n">
+        <v>91832</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Gräddticka</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Perenniporia subacida</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Balsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>696549</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7094655</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>104166197</v>
+      </c>
+      <c r="B67" t="n">
+        <v>91195</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>112</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>696541</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7094647</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>126807878</v>
+      </c>
+      <c r="B68" t="n">
+        <v>91265</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Balsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>696559</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7094716</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Roger Adolfsson</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>126839849</v>
+      </c>
+      <c r="B69" t="n">
+        <v>91832</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Gräddticka</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Perenniporia subacida</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>696555</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7094648</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>104293820</v>
+      </c>
+      <c r="B70" t="n">
+        <v>57657</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>696763</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7094768</v>
+      </c>
+      <c r="S70" t="n">
+        <v>25</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>126839740</v>
+      </c>
+      <c r="B71" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ångermanland, Ång</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>696636</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7094707</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>126839739</v>
+      </c>
+      <c r="B72" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ångermanland, Ång</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>696614</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7094663</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>126839847</v>
+      </c>
+      <c r="B73" t="n">
+        <v>91241</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>696630</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7094677</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>126839846</v>
+      </c>
+      <c r="B74" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>696652</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7094729</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>126835893</v>
+      </c>
+      <c r="B75" t="n">
+        <v>91210</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Balsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>696625</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7094658</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>126832298</v>
+      </c>
+      <c r="B76" t="n">
+        <v>91832</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Gräddticka</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Perenniporia subacida</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>696546</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7094663</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>15:51</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>15:51</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>kristina stenmarck</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>kristina stenmarck</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>104166198</v>
+      </c>
+      <c r="B77" t="n">
+        <v>91832</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Gräddticka</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Perenniporia subacida</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>696550</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7094651</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AU77" t="inlineStr">
+        <is>
+          <t>Gudrun Norstedt</t>
+        </is>
+      </c>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>104293822</v>
+      </c>
+      <c r="B78" t="n">
+        <v>57817</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>696735</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7094763</v>
+      </c>
+      <c r="S78" t="n">
+        <v>25</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>126838736</v>
+      </c>
+      <c r="B79" t="n">
+        <v>82792</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>696602</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7094694</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Elin Kannerby</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Elin Kannerby</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>126840374</v>
+      </c>
+      <c r="B80" t="n">
+        <v>82792</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>696588</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7094696</v>
+      </c>
+      <c r="S80" t="n">
+        <v>15</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>104166195</v>
+      </c>
+      <c r="B81" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>696542</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7094648</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>126839842</v>
+      </c>
+      <c r="B82" t="n">
+        <v>91195</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>112</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>696620</v>
+      </c>
+      <c r="R82" t="n">
+        <v>7094659</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>126840368</v>
+      </c>
+      <c r="B83" t="n">
+        <v>91699</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>696813</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7094677</v>
+      </c>
+      <c r="S83" t="n">
+        <v>15</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>126838740</v>
+      </c>
+      <c r="B84" t="n">
+        <v>91263</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken , Ång</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>696795</v>
+      </c>
+      <c r="R84" t="n">
+        <v>7094625</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>104293811</v>
+      </c>
+      <c r="B85" t="n">
+        <v>95025</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>2412</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Källmossa</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Philonotis fontana</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Hedw.) Brid.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
         <v>696909</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R85" t="n">
         <v>7094605</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S85" t="n">
         <v>25</v>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>Västerbotten</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
         <is>
           <t>Ångermanland</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="Z85" t="inlineStr">
         <is>
           <t>15:16</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AA85" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AB85" t="inlineStr">
         <is>
           <t>15:16</t>
         </is>
       </c>
-      <c r="AD41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr">
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
         <is>
           <t>Isak Vahlström</t>
         </is>
       </c>
-      <c r="AX41" t="inlineStr">
+      <c r="AX85" t="inlineStr">
         <is>
           <t>Isak Vahlström, Carl Jansson</t>
         </is>
       </c>
-      <c r="AY41" t="inlineStr"/>
+      <c r="AY85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>104166199</v>
+      </c>
+      <c r="B86" t="n">
+        <v>91603</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>696616</v>
+      </c>
+      <c r="R86" t="n">
+        <v>7094660</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora i snäv bemärkelse</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>ullticka</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>126830494</v>
+      </c>
+      <c r="B87" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken, Stormyrbäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>696685</v>
+      </c>
+      <c r="R87" t="n">
+        <v>7094630</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Anne Siivola</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Anne Siivola</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/Stormyrbäcken artfynd.xlsx
+++ b/artfynd/Stormyrbäcken artfynd.xlsx
@@ -680,32 +680,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104166210</v>
+        <v>104166214</v>
       </c>
       <c r="B2" t="n">
-        <v>91699</v>
+        <v>91541</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>697074</v>
+        <v>697094</v>
       </c>
       <c r="R2" t="n">
-        <v>7094806</v>
+        <v>7094836</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,32 +796,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104166214</v>
+        <v>104166218</v>
       </c>
       <c r="B3" t="n">
-        <v>91541</v>
+        <v>95594</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>2809</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>697094</v>
+        <v>696869</v>
       </c>
       <c r="R3" t="n">
-        <v>7094836</v>
+        <v>7094770</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -877,21 +877,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -912,32 +897,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104166218</v>
+        <v>104166210</v>
       </c>
       <c r="B4" t="n">
-        <v>95594</v>
+        <v>91699</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2809</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>696869</v>
+        <v>697074</v>
       </c>
       <c r="R4" t="n">
-        <v>7094770</v>
+        <v>7094806</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -993,6 +978,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>126840364</v>
+        <v>126835891</v>
       </c>
       <c r="B5" t="n">
-        <v>75075</v>
+        <v>91241</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1024,37 +1024,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>696815</v>
+        <v>696626</v>
       </c>
       <c r="R5" t="n">
-        <v>7094682</v>
+        <v>7094655</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1092,62 +1092,81 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+        </is>
+      </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>126835890</v>
+        <v>126840364</v>
       </c>
       <c r="B6" t="n">
-        <v>98361</v>
+        <v>75075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>696617</v>
+        <v>696815</v>
       </c>
       <c r="R6" t="n">
-        <v>7094713</v>
+        <v>7094682</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1185,63 +1204,69 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>126835891</v>
+        <v>126835890</v>
       </c>
       <c r="B7" t="n">
-        <v>91241</v>
+        <v>98361</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1108</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>696626</v>
+        <v>696617</v>
       </c>
       <c r="R7" t="n">
-        <v>7094655</v>
+        <v>7094713</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,21 +1310,6 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
@@ -1308,7 +1318,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
@@ -1410,17 +1420,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>126839844</v>
+        <v>126844609</v>
       </c>
       <c r="B9" t="n">
-        <v>91365</v>
+        <v>75075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1428,37 +1438,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3277</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(O.F.Müll.) Dentinger &amp; D.J.McLaughlin</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>696664</v>
+        <v>696549</v>
       </c>
       <c r="R9" t="n">
-        <v>7094733</v>
+        <v>7094686</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1496,32 +1509,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Beke Regelin, Alexandra Astafourova, Vilhelm Kroon, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>126844609</v>
+        <v>126839844</v>
       </c>
       <c r="B10" t="n">
-        <v>75075</v>
+        <v>91365</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1529,21 +1539,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>3277</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(O.F.Müll.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1552,17 +1562,17 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>stormyrbäcken, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>696549</v>
+        <v>696664</v>
       </c>
       <c r="R10" t="n">
-        <v>7094686</v>
+        <v>7094733</v>
       </c>
       <c r="S10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1607,15 +1617,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Beke Regelin</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Beke Regelin, Alexandra Astafourova, Vilhelm Kroon, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Alexandra Astafourova, Beke Regelin</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1706,6 +1720,16 @@
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2263,32 +2287,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>126839840</v>
+        <v>126839839</v>
       </c>
       <c r="B17" t="n">
-        <v>57657</v>
+        <v>91942</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2298,10 +2322,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>696751</v>
+        <v>696782</v>
       </c>
       <c r="R17" t="n">
-        <v>7094766</v>
+        <v>7094640</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2334,11 +2358,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack på gran, 2 månader gammalt</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2369,32 +2388,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>126839839</v>
+        <v>126839840</v>
       </c>
       <c r="B18" t="n">
-        <v>91942</v>
+        <v>57657</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2404,10 +2423,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>696782</v>
+        <v>696751</v>
       </c>
       <c r="R18" t="n">
-        <v>7094640</v>
+        <v>7094766</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2440,6 +2459,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack på gran, 2 månader gammalt</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2576,10 +2600,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104166227</v>
+        <v>104293825</v>
       </c>
       <c r="B20" t="n">
-        <v>91699</v>
+        <v>91603</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2587,37 +2611,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1209</v>
+        <v>2062</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>696765</v>
+        <v>696519</v>
       </c>
       <c r="R20" t="n">
-        <v>7094591</v>
+        <v>7094677</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2644,11 +2668,26 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Eventuellt Skeletocutis delicata</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -2660,42 +2699,38 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104293809</v>
+        <v>104166201</v>
       </c>
       <c r="B21" t="n">
-        <v>57657</v>
+        <v>91195</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2703,42 +2738,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>112</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>696868</v>
+        <v>696617</v>
       </c>
       <c r="R21" t="n">
-        <v>7094595</v>
+        <v>7094660</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2765,21 +2795,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -2788,48 +2808,67 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104166201</v>
+        <v>104166227</v>
       </c>
       <c r="B22" t="n">
-        <v>91195</v>
+        <v>91699</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>112</v>
+        <v>1209</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2839,10 +2878,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>696617</v>
+        <v>696765</v>
       </c>
       <c r="R22" t="n">
-        <v>7094660</v>
+        <v>7094591</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2920,45 +2959,50 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104293825</v>
+        <v>104293809</v>
       </c>
       <c r="B23" t="n">
-        <v>91603</v>
+        <v>57657</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2062</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>696519</v>
+        <v>696868</v>
       </c>
       <c r="R23" t="n">
-        <v>7094677</v>
+        <v>7094595</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -2990,7 +3034,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3000,12 +3044,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:41</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Eventuellt Skeletocutis delicata</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3016,21 +3055,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>ullticka</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3148,56 +3172,52 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>126838456</v>
+        <v>126840369</v>
       </c>
       <c r="B25" t="n">
-        <v>98361</v>
+        <v>100516</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1365</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t>(L.) Tzvelev</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Stormyrbäcken , Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>696678</v>
+        <v>696651</v>
       </c>
       <c r="R25" t="n">
-        <v>7094622</v>
+        <v>7094728</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3224,19 +3244,9 @@
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>14:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3252,12 +3262,12 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
@@ -3351,56 +3361,70 @@
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>126840369</v>
+        <v>126838456</v>
       </c>
       <c r="B27" t="n">
-        <v>100516</v>
+        <v>98361</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1365</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Stormyrbäcken , Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>696651</v>
+        <v>696678</v>
       </c>
       <c r="R27" t="n">
-        <v>7094728</v>
+        <v>7094622</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3427,9 +3451,19 @@
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3443,36 +3477,50 @@
         <v>0</v>
       </c>
       <c r="AT27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104166204</v>
+        <v>104166223</v>
       </c>
       <c r="B28" t="n">
-        <v>91699</v>
+        <v>91263</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3482,10 +3530,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>696859</v>
+        <v>696783</v>
       </c>
       <c r="R28" t="n">
-        <v>7094630</v>
+        <v>7094627</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3563,32 +3611,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104166223</v>
+        <v>104166204</v>
       </c>
       <c r="B29" t="n">
-        <v>91263</v>
+        <v>91699</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3598,10 +3646,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>696783</v>
+        <v>696859</v>
       </c>
       <c r="R29" t="n">
-        <v>7094627</v>
+        <v>7094630</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3679,48 +3727,48 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>126835892</v>
+        <v>126840371</v>
       </c>
       <c r="B30" t="n">
-        <v>91245</v>
+        <v>98361</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>696623</v>
+        <v>696641</v>
       </c>
       <c r="R30" t="n">
-        <v>7094659</v>
+        <v>7094707</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3760,41 +3808,26 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>126837371</v>
+        <v>126835892</v>
       </c>
       <c r="B31" t="n">
-        <v>57657</v>
+        <v>91245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3802,42 +3835,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>696757</v>
+        <v>696623</v>
       </c>
       <c r="R31" t="n">
-        <v>7094771</v>
+        <v>7094659</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3867,26 +3892,11 @@
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Årsfärska ringhack på gran.</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -3895,64 +3905,87 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>126840371</v>
+        <v>126837371</v>
       </c>
       <c r="B32" t="n">
-        <v>98361</v>
+        <v>57657</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>696641</v>
+        <v>696757</v>
       </c>
       <c r="R32" t="n">
-        <v>7094707</v>
+        <v>7094771</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3979,11 +4012,26 @@
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Årsfärska ringhack på gran.</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -3994,6 +4042,16 @@
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -4312,54 +4370,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104166193</v>
+        <v>104166219</v>
       </c>
       <c r="B36" t="n">
-        <v>79518</v>
+        <v>91263</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1353</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Trådbrosklav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramalina thrausta</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>696515</v>
+        <v>696852</v>
       </c>
       <c r="R36" t="n">
-        <v>7094663</v>
+        <v>7094731</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4437,10 +4486,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104166219</v>
+        <v>104293817</v>
       </c>
       <c r="B37" t="n">
-        <v>91263</v>
+        <v>75075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4448,37 +4497,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>696852</v>
+        <v>697041</v>
       </c>
       <c r="R37" t="n">
-        <v>7094731</v>
+        <v>7094811</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4505,11 +4554,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -4518,83 +4577,73 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104293817</v>
+        <v>104166193</v>
       </c>
       <c r="B38" t="n">
-        <v>75075</v>
+        <v>79518</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6440</v>
+        <v>1353</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådbrosklav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramalina thrausta</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Ach.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>697041</v>
+        <v>696515</v>
       </c>
       <c r="R38" t="n">
-        <v>7094811</v>
+        <v>7094663</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4621,21 +4670,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
@@ -4644,61 +4683,80 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY38" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>126839843</v>
+        <v>126839741</v>
       </c>
       <c r="B39" t="n">
-        <v>98382</v>
+        <v>98361</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Stormyrbäcken, Ångermanland, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>696652</v>
+        <v>696653</v>
       </c>
       <c r="R39" t="n">
-        <v>7094729</v>
+        <v>7094725</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4745,12 +4803,12 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Hedda Bring</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Hedda Bring</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4761,10 +4819,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>126839742</v>
+        <v>126839843</v>
       </c>
       <c r="B40" t="n">
-        <v>98278</v>
+        <v>98382</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4772,34 +4830,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ångermanland, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>696724</v>
+        <v>696652</v>
       </c>
       <c r="R40" t="n">
-        <v>7094636</v>
+        <v>7094729</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4844,6 +4902,16 @@
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
       <c r="AY40" t="inlineStr">
         <is>
           <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
@@ -4852,32 +4920,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>126839741</v>
+        <v>126839742</v>
       </c>
       <c r="B41" t="n">
-        <v>98361</v>
+        <v>98278</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4887,10 +4955,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>696653</v>
+        <v>696724</v>
       </c>
       <c r="R41" t="n">
-        <v>7094725</v>
+        <v>7094636</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4935,6 +5003,16 @@
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Hedda Bring</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Hedda Bring</t>
+        </is>
+      </c>
       <c r="AY41" t="inlineStr">
         <is>
           <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
@@ -5043,17 +5121,17 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104293819</v>
+        <v>104166194</v>
       </c>
       <c r="B43" t="n">
-        <v>57657</v>
+        <v>91245</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5061,42 +5139,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>696836</v>
+        <v>696513</v>
       </c>
       <c r="R43" t="n">
-        <v>7094771</v>
+        <v>7094662</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5123,21 +5196,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
@@ -5146,26 +5209,45 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104166194</v>
+        <v>104293819</v>
       </c>
       <c r="B44" t="n">
-        <v>91245</v>
+        <v>57657</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5173,37 +5255,42 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>696513</v>
+        <v>696836</v>
       </c>
       <c r="R44" t="n">
-        <v>7094662</v>
+        <v>7094771</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5230,11 +5317,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
@@ -5243,38 +5340,19 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5394,10 +5472,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>126835889</v>
+        <v>126839838</v>
       </c>
       <c r="B46" t="n">
-        <v>100516</v>
+        <v>91210</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5405,39 +5483,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1365</v>
+        <v>5447</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>696640</v>
+        <v>696620</v>
       </c>
       <c r="R46" t="n">
-        <v>7094734</v>
+        <v>7094659</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5484,60 +5557,72 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr"/>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>126839838</v>
+        <v>126840075</v>
       </c>
       <c r="B47" t="n">
-        <v>91210</v>
+        <v>57657</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>696620</v>
+        <v>696832</v>
       </c>
       <c r="R47" t="n">
-        <v>7094659</v>
+        <v>7094780</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5567,6 +5652,11 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5581,12 +5671,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
@@ -5597,56 +5687,53 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>126840075</v>
+        <v>126835889</v>
       </c>
       <c r="B48" t="n">
-        <v>57657</v>
+        <v>100516</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>1365</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>696832</v>
+        <v>696640</v>
       </c>
       <c r="R48" t="n">
-        <v>7094780</v>
+        <v>7094734</v>
       </c>
       <c r="S48" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5676,11 +5763,6 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5695,19 +5777,15 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5947,32 +6025,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>126835897</v>
+        <v>126835895</v>
       </c>
       <c r="B51" t="n">
-        <v>96614</v>
+        <v>91699</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5982,10 +6060,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>696720</v>
+        <v>696804</v>
       </c>
       <c r="R51" t="n">
-        <v>7094754</v>
+        <v>7094657</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,17 +6109,17 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6052,39 +6130,39 @@
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>126835895</v>
+        <v>126835897</v>
       </c>
       <c r="B52" t="n">
-        <v>91699</v>
+        <v>96614</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6094,10 +6172,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>696804</v>
+        <v>696720</v>
       </c>
       <c r="R52" t="n">
-        <v>7094657</v>
+        <v>7094754</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6143,17 +6221,17 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6164,7 +6242,7 @@
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
@@ -6258,36 +6336,46 @@
         <v>0</v>
       </c>
       <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104166191</v>
+        <v>104166190</v>
       </c>
       <c r="B54" t="n">
-        <v>98361</v>
+        <v>96487</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6297,10 +6385,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>696541</v>
+        <v>696634</v>
       </c>
       <c r="R54" t="n">
-        <v>7094674</v>
+        <v>7094607</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6363,32 +6451,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104166190</v>
+        <v>104166220</v>
       </c>
       <c r="B55" t="n">
-        <v>96487</v>
+        <v>78980</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6398,10 +6486,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>696634</v>
+        <v>696849</v>
       </c>
       <c r="R55" t="n">
-        <v>7094607</v>
+        <v>7094758</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6444,6 +6532,21 @@
       </c>
       <c r="AG55" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -6464,32 +6567,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104166220</v>
+        <v>104166191</v>
       </c>
       <c r="B56" t="n">
-        <v>78980</v>
+        <v>98361</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6499,10 +6602,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>696849</v>
+        <v>696541</v>
       </c>
       <c r="R56" t="n">
-        <v>7094758</v>
+        <v>7094674</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6545,21 +6648,6 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -6663,6 +6751,16 @@
         <v>0</v>
       </c>
       <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -7003,7 +7101,7 @@
         <v>126838671</v>
       </c>
       <c r="B61" t="n">
-        <v>98322</v>
+        <v>98278</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7011,19 +7109,23 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6010643</v>
+        <v>219790</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fläcknycklar × sumpnycklar</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata × majalis subsp. lapponica</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>Dactylorhiza maculata</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>3</t>
@@ -7108,7 +7210,11 @@
           <t>Emil Lindgren</t>
         </is>
       </c>
-      <c r="AY61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7219,32 +7325,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104166211</v>
+        <v>104166215</v>
       </c>
       <c r="B63" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7254,10 +7360,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>697081</v>
+        <v>697085</v>
       </c>
       <c r="R63" t="n">
-        <v>7094804</v>
+        <v>7094831</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7335,32 +7441,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104166215</v>
+        <v>104166211</v>
       </c>
       <c r="B64" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7370,10 +7476,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>697085</v>
+        <v>697081</v>
       </c>
       <c r="R64" t="n">
-        <v>7094831</v>
+        <v>7094804</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7681,7 +7787,7 @@
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
@@ -7804,48 +7910,45 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>126807878</v>
+        <v>126839849</v>
       </c>
       <c r="B68" t="n">
-        <v>91265</v>
+        <v>91832</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5442</v>
+        <v>1179</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>696559</v>
+        <v>696555</v>
       </c>
       <c r="R68" t="n">
-        <v>7094716</v>
+        <v>7094648</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7872,12 +7975,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7886,79 +7989,70 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Carl Jansson, Roger Adolfsson</t>
-        </is>
-      </c>
-      <c r="AY68" t="inlineStr"/>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>126839849</v>
+        <v>126807878</v>
       </c>
       <c r="B69" t="n">
-        <v>91832</v>
+        <v>91265</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1179</v>
+        <v>5442</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>696555</v>
+        <v>696559</v>
       </c>
       <c r="R69" t="n">
-        <v>7094648</v>
+        <v>7094716</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7985,12 +8079,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,25 +8093,37 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
-        </is>
-      </c>
-      <c r="AY69" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Carl Jansson, Roger Adolfsson</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -8216,6 +8322,16 @@
         <v>0</v>
       </c>
       <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Hedda Bring</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Hedda Bring</t>
+        </is>
+      </c>
       <c r="AY71" t="inlineStr">
         <is>
           <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
@@ -8224,7 +8340,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>126839739</v>
+        <v>126839846</v>
       </c>
       <c r="B72" t="n">
         <v>98361</v>
@@ -8255,14 +8371,14 @@
       <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ångermanland, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>696614</v>
+        <v>696652</v>
       </c>
       <c r="R72" t="n">
-        <v>7094663</v>
+        <v>7094729</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8307,6 +8423,16 @@
         <v>0</v>
       </c>
       <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
       <c r="AY72" t="inlineStr">
         <is>
           <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
@@ -8315,45 +8441,45 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>126839847</v>
+        <v>126839739</v>
       </c>
       <c r="B73" t="n">
-        <v>91241</v>
+        <v>98361</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1108</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Stormyrbäcken, Ångermanland, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>696630</v>
+        <v>696614</v>
       </c>
       <c r="R73" t="n">
-        <v>7094677</v>
+        <v>7094663</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8400,12 +8526,12 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Hedda Bring</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Hedda Bring</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr">
@@ -8416,32 +8542,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>126839846</v>
+        <v>126839847</v>
       </c>
       <c r="B74" t="n">
-        <v>98361</v>
+        <v>91241</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>1108</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8451,10 +8577,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>696652</v>
+        <v>696630</v>
       </c>
       <c r="R74" t="n">
-        <v>7094729</v>
+        <v>7094677</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8517,48 +8643,48 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>126835893</v>
+        <v>126832298</v>
       </c>
       <c r="B75" t="n">
-        <v>91210</v>
+        <v>91832</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5447</v>
+        <v>1179</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>696625</v>
+        <v>696546</v>
       </c>
       <c r="R75" t="n">
-        <v>7094658</v>
+        <v>7094663</v>
       </c>
       <c r="S75" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8585,11 +8711,21 @@
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>15:51</t>
+        </is>
+      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>15:51</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -8598,79 +8734,68 @@
       </c>
       <c r="AG75" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>kristina stenmarck</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
-        </is>
-      </c>
-      <c r="AY75" t="inlineStr"/>
+          <t>kristina stenmarck</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>126832298</v>
+        <v>126835893</v>
       </c>
       <c r="B76" t="n">
-        <v>91832</v>
+        <v>91210</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1179</v>
+        <v>5447</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>696546</v>
+        <v>696625</v>
       </c>
       <c r="R76" t="n">
-        <v>7094663</v>
+        <v>7094658</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -8697,21 +8822,11 @@
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>15:51</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>15:51</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -8720,23 +8835,34 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>kristina stenmarck</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>kristina stenmarck</t>
-        </is>
-      </c>
-      <c r="AY76" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -9165,6 +9291,16 @@
         <v>0</v>
       </c>
       <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -9473,6 +9609,16 @@
         <v>0</v>
       </c>
       <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -9592,7 +9738,11 @@
           <t>Emil Lindgren</t>
         </is>
       </c>
-      <c r="AY84" t="inlineStr"/>
+      <c r="AY84" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">

--- a/artfynd/Stormyrbäcken artfynd.xlsx
+++ b/artfynd/Stormyrbäcken artfynd.xlsx
@@ -680,32 +680,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104166214</v>
+        <v>104166218</v>
       </c>
       <c r="B2" t="n">
-        <v>91541</v>
+        <v>95594</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>2809</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>697094</v>
+        <v>696869</v>
       </c>
       <c r="R2" t="n">
-        <v>7094836</v>
+        <v>7094770</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,21 +761,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -796,32 +781,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104166218</v>
+        <v>104166214</v>
       </c>
       <c r="B3" t="n">
-        <v>95594</v>
+        <v>91541</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2809</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -831,10 +816,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>696869</v>
+        <v>697094</v>
       </c>
       <c r="R3" t="n">
-        <v>7094770</v>
+        <v>7094836</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -877,6 +862,21 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -1325,53 +1325,51 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>126835896</v>
+        <v>126844609</v>
       </c>
       <c r="B8" t="n">
-        <v>100516</v>
+        <v>75075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1365</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>696780</v>
+        <v>696549</v>
       </c>
       <c r="R8" t="n">
-        <v>7094762</v>
+        <v>7094686</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1409,28 +1407,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+          <t>Beke Regelin, Alexandra Astafourova, Vilhelm Kroon, Carl Jansson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>126844609</v>
+        <v>126839844</v>
       </c>
       <c r="B9" t="n">
-        <v>75075</v>
+        <v>91365</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1438,21 +1437,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>3277</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(O.F.Müll.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1461,17 +1460,17 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>stormyrbäcken, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>696549</v>
+        <v>696664</v>
       </c>
       <c r="R9" t="n">
-        <v>7094686</v>
+        <v>7094733</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1516,60 +1515,66 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Beke Regelin</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Beke Regelin, Alexandra Astafourova, Vilhelm Kroon, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Alexandra Astafourova, Beke Regelin</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>126839844</v>
+        <v>126835896</v>
       </c>
       <c r="B10" t="n">
-        <v>91365</v>
+        <v>100516</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3277</v>
+        <v>1365</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(O.F.Müll.) Dentinger &amp; D.J.McLaughlin</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>696664</v>
+        <v>696780</v>
       </c>
       <c r="R10" t="n">
-        <v>7094733</v>
+        <v>7094762</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1610,26 +1615,21 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova, Beke Regelin</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1850,7 +1850,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104166200</v>
+        <v>104293806</v>
       </c>
       <c r="B13" t="n">
         <v>91245</v>
@@ -1881,17 +1881,17 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>696616</v>
+        <v>696512</v>
       </c>
       <c r="R13" t="n">
-        <v>7094660</v>
+        <v>7094682</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1918,11 +1918,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -1931,42 +1941,23 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104293806</v>
+        <v>104166200</v>
       </c>
       <c r="B14" t="n">
         <v>91245</v>
@@ -1997,17 +1988,17 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>696512</v>
+        <v>696616</v>
       </c>
       <c r="R14" t="n">
-        <v>7094682</v>
+        <v>7094660</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2034,21 +2025,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>15:41</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>15:41</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2057,19 +2038,38 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2600,45 +2600,50 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104293825</v>
+        <v>104293809</v>
       </c>
       <c r="B20" t="n">
-        <v>91603</v>
+        <v>57657</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2062</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>696519</v>
+        <v>696868</v>
       </c>
       <c r="R20" t="n">
-        <v>7094677</v>
+        <v>7094595</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2670,7 +2675,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2680,12 +2685,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:41</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Eventuellt Skeletocutis delicata</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2696,21 +2696,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>ullticka</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2727,48 +2712,48 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104166201</v>
+        <v>104293825</v>
       </c>
       <c r="B21" t="n">
-        <v>91195</v>
+        <v>91603</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>112</v>
+        <v>2062</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>696617</v>
+        <v>696519</v>
       </c>
       <c r="R21" t="n">
-        <v>7094660</v>
+        <v>7094677</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2795,11 +2780,26 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Eventuellt Skeletocutis delicata</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -2811,64 +2811,60 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104166227</v>
+        <v>104166201</v>
       </c>
       <c r="B22" t="n">
-        <v>91699</v>
+        <v>91195</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1209</v>
+        <v>112</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2878,10 +2874,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>696765</v>
+        <v>696617</v>
       </c>
       <c r="R22" t="n">
-        <v>7094591</v>
+        <v>7094660</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2959,53 +2955,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104293809</v>
+        <v>104166227</v>
       </c>
       <c r="B23" t="n">
-        <v>57657</v>
+        <v>91699</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>696868</v>
+        <v>696765</v>
       </c>
       <c r="R23" t="n">
-        <v>7094595</v>
+        <v>7094591</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3032,21 +3023,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3055,19 +3036,38 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3172,52 +3172,56 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>126840369</v>
+        <v>126838456</v>
       </c>
       <c r="B25" t="n">
-        <v>100516</v>
+        <v>98361</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1365</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Stormyrbäcken , Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>696651</v>
+        <v>696678</v>
       </c>
       <c r="R25" t="n">
-        <v>7094728</v>
+        <v>7094622</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3244,9 +3248,19 @@
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3262,22 +3276,26 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>126840365</v>
+        <v>126840369</v>
       </c>
       <c r="B26" t="n">
-        <v>91210</v>
+        <v>100516</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3285,26 +3303,27 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>1365</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3312,10 +3331,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>696619</v>
+        <v>696651</v>
       </c>
       <c r="R26" t="n">
-        <v>7094648</v>
+        <v>7094728</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3375,56 +3394,51 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>126838456</v>
+        <v>126840365</v>
       </c>
       <c r="B27" t="n">
-        <v>98361</v>
+        <v>91210</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Stormyrbäcken , Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>696678</v>
+        <v>696619</v>
       </c>
       <c r="R27" t="n">
-        <v>7094622</v>
+        <v>7094648</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3451,19 +3465,9 @@
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>14:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3479,48 +3483,44 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104166223</v>
+        <v>104166204</v>
       </c>
       <c r="B28" t="n">
-        <v>91263</v>
+        <v>91699</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>696783</v>
+        <v>696859</v>
       </c>
       <c r="R28" t="n">
-        <v>7094627</v>
+        <v>7094630</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3611,32 +3611,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104166204</v>
+        <v>104166223</v>
       </c>
       <c r="B29" t="n">
-        <v>91699</v>
+        <v>91263</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>696859</v>
+        <v>696783</v>
       </c>
       <c r="R29" t="n">
-        <v>7094630</v>
+        <v>7094627</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3727,48 +3727,48 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>126840371</v>
+        <v>126835892</v>
       </c>
       <c r="B30" t="n">
-        <v>98361</v>
+        <v>91245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>696641</v>
+        <v>696623</v>
       </c>
       <c r="R30" t="n">
-        <v>7094707</v>
+        <v>7094659</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3808,64 +3808,79 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>126835892</v>
+        <v>126840371</v>
       </c>
       <c r="B31" t="n">
-        <v>91245</v>
+        <v>98361</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>696623</v>
+        <v>696641</v>
       </c>
       <c r="R31" t="n">
-        <v>7094659</v>
+        <v>7094707</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3905,31 +3920,16 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>126839848</v>
+        <v>126840076</v>
       </c>
       <c r="B34" t="n">
-        <v>91241</v>
+        <v>78980</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4183,21 +4183,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4207,13 +4207,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>696622</v>
+        <v>696735</v>
       </c>
       <c r="R34" t="n">
-        <v>7094659</v>
+        <v>7094766</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4257,26 +4257,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
-        </is>
-      </c>
-      <c r="AY34" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126840076</v>
+        <v>126839848</v>
       </c>
       <c r="B35" t="n">
-        <v>78980</v>
+        <v>91241</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4284,21 +4280,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4308,13 +4304,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>696735</v>
+        <v>696622</v>
       </c>
       <c r="R35" t="n">
-        <v>7094766</v>
+        <v>7094659</v>
       </c>
       <c r="S35" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4358,22 +4354,26 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
-        </is>
-      </c>
-      <c r="AY35" t="inlineStr"/>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104166219</v>
+        <v>104293817</v>
       </c>
       <c r="B36" t="n">
-        <v>91263</v>
+        <v>75075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4381,37 +4381,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>696852</v>
+        <v>697041</v>
       </c>
       <c r="R36" t="n">
-        <v>7094731</v>
+        <v>7094811</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4438,11 +4438,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -4451,83 +4461,73 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104293817</v>
+        <v>104166193</v>
       </c>
       <c r="B37" t="n">
-        <v>75075</v>
+        <v>79518</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6440</v>
+        <v>1353</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådbrosklav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramalina thrausta</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(Ach.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>697041</v>
+        <v>696515</v>
       </c>
       <c r="R37" t="n">
-        <v>7094811</v>
+        <v>7094663</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4554,21 +4554,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -4577,70 +4567,80 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104166193</v>
+        <v>104166219</v>
       </c>
       <c r="B38" t="n">
-        <v>79518</v>
+        <v>91263</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1353</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Trådbrosklav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramalina thrausta</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>696515</v>
+        <v>696852</v>
       </c>
       <c r="R38" t="n">
-        <v>7094663</v>
+        <v>7094731</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4718,32 +4718,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>126839741</v>
+        <v>126839742</v>
       </c>
       <c r="B39" t="n">
-        <v>98361</v>
+        <v>98278</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>696653</v>
+        <v>696724</v>
       </c>
       <c r="R39" t="n">
-        <v>7094725</v>
+        <v>7094636</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4920,32 +4920,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>126839742</v>
+        <v>126839741</v>
       </c>
       <c r="B41" t="n">
-        <v>98278</v>
+        <v>98361</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>696724</v>
+        <v>696653</v>
       </c>
       <c r="R41" t="n">
-        <v>7094636</v>
+        <v>7094725</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5244,53 +5244,48 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104293819</v>
+        <v>104166222</v>
       </c>
       <c r="B44" t="n">
-        <v>57657</v>
+        <v>91699</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>696836</v>
+        <v>696811</v>
       </c>
       <c r="R44" t="n">
-        <v>7094771</v>
+        <v>7094662</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5317,21 +5312,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
@@ -5340,64 +5325,88 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>104166222</v>
+        <v>104293819</v>
       </c>
       <c r="B45" t="n">
-        <v>91699</v>
+        <v>57657</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>696811</v>
+        <v>696836</v>
       </c>
       <c r="R45" t="n">
-        <v>7094662</v>
+        <v>7094771</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5424,11 +5433,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
@@ -5437,38 +5456,19 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5573,56 +5573,53 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>126840075</v>
+        <v>126835889</v>
       </c>
       <c r="B47" t="n">
-        <v>57657</v>
+        <v>100516</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1365</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>696832</v>
+        <v>696640</v>
       </c>
       <c r="R47" t="n">
-        <v>7094780</v>
+        <v>7094734</v>
       </c>
       <c r="S47" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5652,11 +5649,6 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5671,69 +5663,68 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
-        </is>
-      </c>
-      <c r="AY47" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>126835889</v>
+        <v>126840075</v>
       </c>
       <c r="B48" t="n">
-        <v>100516</v>
+        <v>57657</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1365</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>696640</v>
+        <v>696832</v>
       </c>
       <c r="R48" t="n">
-        <v>7094734</v>
+        <v>7094780</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5763,6 +5754,11 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5777,15 +5773,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr"/>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6025,48 +6025,51 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>126835895</v>
+        <v>126840366</v>
       </c>
       <c r="B51" t="n">
-        <v>91699</v>
+        <v>91195</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1209</v>
+        <v>112</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>696804</v>
+        <v>696621</v>
       </c>
       <c r="R51" t="n">
-        <v>7094657</v>
+        <v>7094659</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6104,65 +6107,51 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>126835897</v>
+        <v>126835895</v>
       </c>
       <c r="B52" t="n">
-        <v>96614</v>
+        <v>91699</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6172,10 +6161,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>696720</v>
+        <v>696804</v>
       </c>
       <c r="R52" t="n">
-        <v>7094754</v>
+        <v>7094657</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6221,17 +6210,17 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6249,10 +6238,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>126840366</v>
+        <v>126835897</v>
       </c>
       <c r="B53" t="n">
-        <v>91195</v>
+        <v>96614</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6260,40 +6249,37 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>696621</v>
+        <v>696720</v>
       </c>
       <c r="R53" t="n">
-        <v>7094659</v>
+        <v>7094754</v>
       </c>
       <c r="S53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6331,51 +6317,65 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104166190</v>
+        <v>104166220</v>
       </c>
       <c r="B54" t="n">
-        <v>96487</v>
+        <v>78980</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6385,10 +6385,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>696634</v>
+        <v>696849</v>
       </c>
       <c r="R54" t="n">
-        <v>7094607</v>
+        <v>7094758</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6431,6 +6431,21 @@
       </c>
       <c r="AG54" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
@@ -6451,32 +6466,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104166220</v>
+        <v>104166190</v>
       </c>
       <c r="B55" t="n">
-        <v>78980</v>
+        <v>96487</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6486,10 +6501,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>696849</v>
+        <v>696634</v>
       </c>
       <c r="R55" t="n">
-        <v>7094758</v>
+        <v>7094607</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6532,21 +6547,6 @@
       </c>
       <c r="AG55" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
@@ -6668,32 +6668,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>126840373</v>
+        <v>126839837</v>
       </c>
       <c r="B57" t="n">
-        <v>91832</v>
+        <v>75075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1179</v>
+        <v>6440</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6703,13 +6703,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>696553</v>
+        <v>696809</v>
       </c>
       <c r="R57" t="n">
-        <v>7094650</v>
+        <v>7094671</v>
       </c>
       <c r="S57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6753,44 +6753,48 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Torbjörn Söderquist</t>
-        </is>
-      </c>
-      <c r="AY57" t="inlineStr"/>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>126839837</v>
+        <v>126840373</v>
       </c>
       <c r="B58" t="n">
-        <v>75075</v>
+        <v>91832</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>1179</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6800,13 +6804,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>696809</v>
+        <v>696553</v>
       </c>
       <c r="R58" t="n">
-        <v>7094671</v>
+        <v>7094650</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6850,48 +6854,44 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Torbjörn Söderquist</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
-        </is>
-      </c>
-      <c r="AY58" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Torbjörn Söderquist</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>104166225</v>
+        <v>104166203</v>
       </c>
       <c r="B59" t="n">
-        <v>91245</v>
+        <v>91942</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6901,10 +6901,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>696763</v>
+        <v>696867</v>
       </c>
       <c r="R59" t="n">
-        <v>7094591</v>
+        <v>7094617</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6982,32 +6982,32 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104166203</v>
+        <v>104166225</v>
       </c>
       <c r="B60" t="n">
-        <v>91942</v>
+        <v>91245</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7017,10 +7017,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>696867</v>
+        <v>696763</v>
       </c>
       <c r="R60" t="n">
-        <v>7094617</v>
+        <v>7094591</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7218,10 +7218,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>104293818</v>
+        <v>104166215</v>
       </c>
       <c r="B62" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>697040</v>
+        <v>697085</v>
       </c>
       <c r="R62" t="n">
-        <v>7094813</v>
+        <v>7094831</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7286,21 +7286,11 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
@@ -7309,48 +7299,67 @@
       </c>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY62" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104166215</v>
+        <v>104166211</v>
       </c>
       <c r="B63" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7360,10 +7369,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>697085</v>
+        <v>697081</v>
       </c>
       <c r="R63" t="n">
-        <v>7094831</v>
+        <v>7094804</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7441,45 +7450,54 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104166211</v>
+        <v>104166221</v>
       </c>
       <c r="B64" t="n">
-        <v>91699</v>
+        <v>79518</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1209</v>
+        <v>1353</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Trådbrosklav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Ramalina thrausta</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>(Ach.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>697081</v>
+        <v>696848</v>
       </c>
       <c r="R64" t="n">
-        <v>7094804</v>
+        <v>7094729</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7557,57 +7575,48 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>104166221</v>
+        <v>104293818</v>
       </c>
       <c r="B65" t="n">
-        <v>79518</v>
+        <v>78980</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1353</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Trådbrosklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ramalina thrausta</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>696848</v>
+        <v>697040</v>
       </c>
       <c r="R65" t="n">
-        <v>7094729</v>
+        <v>7094813</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7634,11 +7643,21 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -7647,38 +7666,19 @@
       </c>
       <c r="AG65" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ65" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK65" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO65" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY65" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7910,45 +7910,48 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>126839849</v>
+        <v>126807878</v>
       </c>
       <c r="B68" t="n">
-        <v>91832</v>
+        <v>91265</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1179</v>
+        <v>5442</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>696555</v>
+        <v>696559</v>
       </c>
       <c r="R68" t="n">
-        <v>7094648</v>
+        <v>7094716</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7975,12 +7978,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7989,70 +7992,79 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
-        </is>
-      </c>
-      <c r="AY68" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Carl Jansson, Roger Adolfsson</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>126807878</v>
+        <v>126839849</v>
       </c>
       <c r="B69" t="n">
-        <v>91265</v>
+        <v>91832</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5442</v>
+        <v>1179</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>696559</v>
+        <v>696555</v>
       </c>
       <c r="R69" t="n">
-        <v>7094716</v>
+        <v>7094648</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8079,12 +8091,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8093,37 +8105,25 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Carl Jansson, Roger Adolfsson</t>
-        </is>
-      </c>
-      <c r="AY69" t="inlineStr"/>
+          <t>Alexandra Astafourova</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -8239,45 +8239,45 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>126839740</v>
+        <v>126835893</v>
       </c>
       <c r="B71" t="n">
-        <v>98361</v>
+        <v>91210</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ångermanland, Ång</t>
+          <t>Balsjö, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>696636</v>
+        <v>696625</v>
       </c>
       <c r="R71" t="n">
-        <v>7094707</v>
+        <v>7094658</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8321,51 +8321,62 @@
       <c r="AG71" t="b">
         <v>0</v>
       </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Hedda Bring</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Hedda Bring</t>
-        </is>
-      </c>
-      <c r="AY71" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>126839846</v>
+        <v>126839847</v>
       </c>
       <c r="B72" t="n">
-        <v>98361</v>
+        <v>91241</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>1108</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8375,10 +8386,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>696652</v>
+        <v>696630</v>
       </c>
       <c r="R72" t="n">
-        <v>7094729</v>
+        <v>7094677</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8542,32 +8553,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>126839847</v>
+        <v>126839846</v>
       </c>
       <c r="B74" t="n">
-        <v>91241</v>
+        <v>98361</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1108</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8577,10 +8588,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>696630</v>
+        <v>696652</v>
       </c>
       <c r="R74" t="n">
-        <v>7094677</v>
+        <v>7094729</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8754,45 +8765,45 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>126835893</v>
+        <v>126839740</v>
       </c>
       <c r="B76" t="n">
-        <v>91210</v>
+        <v>98361</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Balsjö, Ång</t>
+          <t>Stormyrbäcken, Ångermanland, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>696625</v>
+        <v>696636</v>
       </c>
       <c r="R76" t="n">
-        <v>7094658</v>
+        <v>7094707</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8836,33 +8847,22 @@
       <c r="AG76" t="b">
         <v>0</v>
       </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO76" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Hedda Bring</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
-        </is>
-      </c>
-      <c r="AY76" t="inlineStr"/>
+          <t>Hedda Bring</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -9421,10 +9421,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>126839842</v>
+        <v>126838740</v>
       </c>
       <c r="B82" t="n">
-        <v>91195</v>
+        <v>91263</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9432,34 +9432,45 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>112</v>
+        <v>5432</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pat.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Ång</t>
+          <t>Stormyrbäcken , Ång</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>696620</v>
+        <v>696795</v>
       </c>
       <c r="R82" t="n">
-        <v>7094659</v>
+        <v>7094625</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9489,29 +9500,40 @@
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
       </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="AD82" t="b">
         <v>0</v>
       </c>
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Alexandra Astafourova</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
@@ -9623,10 +9645,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>126838740</v>
+        <v>126839842</v>
       </c>
       <c r="B84" t="n">
-        <v>91263</v>
+        <v>91195</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9634,45 +9656,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>112</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Stormyrbäcken , Ång</t>
+          <t>Stormyrbäcken, Ång</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>696795</v>
+        <v>696620</v>
       </c>
       <c r="R84" t="n">
-        <v>7094625</v>
+        <v>7094659</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9702,40 +9713,29 @@
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
       </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
       <c r="AE84" t="b">
         <v>0</v>
       </c>
-      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Emil Lindgren</t>
+          <t>Alexandra Astafourova</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
@@ -9746,48 +9746,51 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>104293811</v>
+        <v>104166199</v>
       </c>
       <c r="B85" t="n">
-        <v>95025</v>
+        <v>91603</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2412</v>
+        <v>2062</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Källmossa</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Philonotis fontana</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>696909</v>
+        <v>696616</v>
       </c>
       <c r="R85" t="n">
-        <v>7094605</v>
+        <v>7094660</v>
       </c>
       <c r="S85" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -9814,19 +9817,14 @@
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
       <c r="AA85" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>15:16</t>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora i snäv bemärkelse</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9835,69 +9833,86 @@
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>ullticka</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY85" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>104166199</v>
+        <v>104293811</v>
       </c>
       <c r="B86" t="n">
-        <v>91603</v>
+        <v>95025</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2062</v>
+        <v>2412</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Källmossa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Philonotis fontana</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Stormyrbäcken, Balsjö, Bjurholm, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>696616</v>
+        <v>696909</v>
       </c>
       <c r="R86" t="n">
-        <v>7094660</v>
+        <v>7094605</v>
       </c>
       <c r="S86" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -9924,14 +9939,19 @@
           <t>2022-10-17</t>
         </is>
       </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
       <c r="AA86" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Skeletocutis brevispora i snäv bemärkelse</t>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9940,41 +9960,21 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
-      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ86" t="inlineStr">
-        <is>
-          <t>ullticka</t>
-        </is>
-      </c>
-      <c r="AK86" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="AO86" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY86" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
